--- a/biology/Histoire de la zoologie et de la botanique/Jim_Corbett/Jim_Corbett.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jim_Corbett/Jim_Corbett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward James Corbett  dit Jim Corbett, né le 25 juillet 1875 et décédé le 19 avril 1955 est un officier de l'armée britannique, chasseur et naturaliste de la période du Raj britannique, célèbre comme chasseur de tigres et léopards mangeurs d'hommes. Il fit part de ses expériences dans des écrits qui eurent un grand succès de librairie. Le parc national Jim Corbett en Inde a été nommé en sa mémoire, le tigre d'Indochine (Panthera tigris corbetti) fut également nommé en son honneur.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jim Corbett naît sur mars, son père qui est postmaster à Naini Tal, meurt lorsque Jim a quatre ans et sa mère doit élever ses douze enfants avec sa maigre pension de veuve. Il grandit au contact de la nature, toujours très présente en Inde, et commence à chasser pour nourrir la famille. Il devient bientôt un grand connaisseur de la nature indienne et un chasseur hors pair. Aussi, dès 1906, on fait appel à lui pour chasser les tigres et les léopards qui attaquent l'homme.
 Entre 1906 et 1941, Corbett élimine une douzaine de félins mangeurs d'hommes, responsables de quelque 1 500 morts d'hommes, femmes et enfants. Sa première victime, la tigresse de Champawat, était responsable à elle seule de 436 morts. Cependant, il commence à s'interroger sur son action et refusera toujours d'abattre un animal dont on n'a pas la preuve qu'il ait tué plusieurs personnes, et particulièrement les femelles inquiètes pour leurs petits. Il explique d'ailleurs dans ses livres que les tigres et léopards ne deviennent « mangeurs d'hommes » que lorsque, à cause de blessures ou de maladie, ils n'arrivent plus à chasser leurs proies habituelles.
@@ -546,7 +560,9 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses comptes rendus de chasse et d'élimination de félidés mangeurs d'homme sont réunis dans ses livres, tous de grands succès de librairie en Inde et en Angleterre (rassemblés pour l'édition française dans Tigres et léopards mangeurs-d'hommes, Montbel, Paris, 2004,  (ISBN 2-914390-12-2)).
 The Man-Eaters of Kumaon (1944)
